--- a/abp_learn/Zhaoxi.Forum.DbMigrator/Files/category.xlsx
+++ b/abp_learn/Zhaoxi.Forum.DbMigrator/Files/category.xlsx
@@ -1,353 +1,286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>描叙</t>
+  </si>
+  <si>
+    <t>板块排序</t>
+  </si>
+  <si>
+    <t>图像</t>
+  </si>
+  <si>
+    <t>拼音</t>
+  </si>
+  <si>
+    <t>父板块</t>
+  </si>
+  <si>
     <t>编程语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程语言描叙编程语言描叙编程语言描叙编程语言描叙编程语言描叙编程语言描叙编程语言描叙编程语言描叙编程语言描叙编程语言描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/program.png</t>
   </si>
   <si>
     <t>program</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#编程语言描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/csharp.png</t>
+  </si>
+  <si>
+    <t>csharp</t>
   </si>
   <si>
     <t>Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java编程语言描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/java.png</t>
+  </si>
+  <si>
+    <t>java</t>
   </si>
   <si>
     <t>Go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO编程语言描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/go.png</t>
   </si>
   <si>
     <t>go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编程语言描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C#编程语言描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java编程语言描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/program.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csharp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/csharp.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/java.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C编程语言描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/c.png</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>Python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python编程语言描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/python.png</t>
+  </si>
+  <si>
+    <t>python</t>
   </si>
   <si>
     <t>Rust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rust编程语言描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/rust.png</t>
   </si>
   <si>
     <t>rust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/go.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/c.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/python.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/rust.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO编程语言描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C编程语言描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python编程语言描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rust编程语言描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库技术</t>
   </si>
   <si>
     <t>数据库技术描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/database</t>
+  </si>
+  <si>
+    <t>database</t>
   </si>
   <si>
     <t>MySql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySql数据库技术描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/msql</t>
+  </si>
+  <si>
+    <t>msql</t>
   </si>
   <si>
     <t>Sql Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sql Server数据库技术描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/sqlserver</t>
+  </si>
+  <si>
+    <t>sqlserver</t>
   </si>
   <si>
     <t>Oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle数据库技术描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/oracle</t>
+  </si>
+  <si>
+    <t>oracle</t>
   </si>
   <si>
     <t>MongoDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoDB数据库技术描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/mongodb</t>
+  </si>
+  <si>
+    <t>mongodb</t>
   </si>
   <si>
     <t>PostgreSQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySql数据库技术描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sql Server数据库技术描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle数据库技术描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoDB数据库技术描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PostgreSQL数据库技术描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>database</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlserver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mongodb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/postgresql</t>
   </si>
   <si>
     <t>postgresql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/database</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/msql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/sqlserver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/mongodb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/postgresql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式技术</t>
+  </si>
+  <si>
+    <t>分布式技术描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/distributed</t>
+  </si>
+  <si>
+    <t>distributed</t>
   </si>
   <si>
     <t>Redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/redis</t>
+  </si>
+  <si>
+    <t>redis</t>
   </si>
   <si>
     <t>RabbitMQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/rabbitmq</t>
+  </si>
+  <si>
+    <t>rabbitmq</t>
   </si>
   <si>
     <t>ElasticSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticSearch描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/elasticsearch</t>
+  </si>
+  <si>
+    <t>elasticsearch</t>
   </si>
   <si>
     <t>Kafka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distributed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elasticsearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka描叙</t>
+  </si>
+  <si>
+    <t>http://img.zhaoxi.net/kafka</t>
   </si>
   <si>
     <t>kafka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式技术描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RabbitMQ描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElasticSearch描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kafka描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbitmq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/distributed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/rabbitmq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/elasticsearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.zhaoxi.net/kafka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描叙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板块排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -356,19 +289,341 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -376,27 +631,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -445,7 +982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,7 +1017,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,60 +1220,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="52.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="33.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="20.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>900</v>
@@ -745,228 +1282,228 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>910</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>920</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>930</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>940</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>950</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>960</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>20000</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>800</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>20001</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>810</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>20002</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>820</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>20003</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>830</v>
@@ -975,113 +1512,113 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>20004</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>840</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>20005</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>30000</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>700</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>30001</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>710</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G16">
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>30002</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>720</v>
@@ -1090,81 +1627,81 @@
         <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G17">
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>30003</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <v>730</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G18">
         <v>30000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>30004</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>740</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G19">
         <v>30000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://img.zhaoxi.net/program.png"/>
+    <hyperlink ref="E5" r:id="rId2" display="http://img.zhaoxi.net/go.png"/>
+    <hyperlink ref="E3" r:id="rId3" display="http://img.zhaoxi.net/csharp.png"/>
+    <hyperlink ref="E4" r:id="rId4" display="http://img.zhaoxi.net/java.png"/>
+    <hyperlink ref="E6" r:id="rId5" display="http://img.zhaoxi.net/c.png"/>
+    <hyperlink ref="E7" r:id="rId6" display="http://img.zhaoxi.net/python.png"/>
+    <hyperlink ref="E8" r:id="rId7" display="http://img.zhaoxi.net/rust.png"/>
+    <hyperlink ref="E9" r:id="rId8" display="http://img.zhaoxi.net/database"/>
+    <hyperlink ref="E10" r:id="rId9" display="http://img.zhaoxi.net/msql"/>
+    <hyperlink ref="E11" r:id="rId10" display="http://img.zhaoxi.net/sqlserver"/>
+    <hyperlink ref="E12" r:id="rId11" display="http://img.zhaoxi.net/oracle"/>
+    <hyperlink ref="E13" r:id="rId12" display="http://img.zhaoxi.net/mongodb"/>
+    <hyperlink ref="E14" r:id="rId13" display="http://img.zhaoxi.net/postgresql"/>
+    <hyperlink ref="E15" r:id="rId14" display="http://img.zhaoxi.net/distributed"/>
+    <hyperlink ref="E16" r:id="rId15" display="http://img.zhaoxi.net/redis"/>
+    <hyperlink ref="E17" r:id="rId16" display="http://img.zhaoxi.net/rabbitmq"/>
+    <hyperlink ref="E18" r:id="rId17" display="http://img.zhaoxi.net/elasticsearch"/>
+    <hyperlink ref="E19" r:id="rId18" display="http://img.zhaoxi.net/kafka"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>